--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr3_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr3_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,7 +247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -199,45 +265,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29327142814031493</v>
+        <v>0.29322669992438499</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29406251397890448</v>
+        <v>0.29402287072866262</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.00026582253973766806</v>
+        <v>0.00026862316807287816</v>
       </c>
       <c r="E3" s="0">
-        <v>5.5479644910603573e-05</v>
+        <v>5.6339040856402473e-05</v>
       </c>
       <c r="F3" s="0">
-        <v>-6.841294295482316e-05</v>
+        <v>-6.74865681431272e-05</v>
       </c>
       <c r="G3" s="0">
-        <v>5.7096525486939719e-05</v>
+        <v>5.7757059480325182e-05</v>
       </c>
       <c r="H3" s="0">
-        <v>-1.0983836969681316e-05</v>
+        <v>-1.089583323160345e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>0.00014846118921217714</v>
+        <v>0.00015038224792077935</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>2.5416656452559305e-05</v>
+        <v>2.5416568982750132e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.29315881691980045</v>
+        <v>0.29295916031138003</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.00034316384490972796</v>
+        <v>-0.00045121980247157074</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-5.8923133003977615e-06</v>
+        <v>-5.8899298331100324e-06</v>
       </c>
       <c r="F4" s="0">
-        <v>1.9478224855126924e-07</v>
+        <v>1.9328990483364064e-07</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-2.9562885270507693e-05</v>
+        <v>-2.9414099441649308e-05</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.00066184983045592413</v>
+        <v>-0.00065723111308691145</v>
       </c>
       <c r="J4" s="0">
-        <v>-5.7817075532989564e-05</v>
+        <v>-5.8765382739523699e-05</v>
       </c>
       <c r="K4" s="0">
-        <v>-2.0153077053219892e-05</v>
+        <v>-2.0153464231731366e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.29484560249622366</v>
+        <v>0.29489250931795141</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0016320973135802348</v>
+        <v>0.0017607400960979902</v>
       </c>
       <c r="D5" s="0">
-        <v>-2.9656255260827489e-05</v>
+        <v>-2.1389137635239426e-05</v>
       </c>
       <c r="E5" s="0">
-        <v>-8.8350787969276951e-05</v>
+        <v>-8.8885207209196416e-05</v>
       </c>
       <c r="F5" s="0">
-        <v>0.00017658975259622422</v>
+        <v>0.00017738100206791978</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.00087310410885099179</v>
+        <v>-0.00087335807055857718</v>
       </c>
       <c r="H5" s="0">
-        <v>-1.9337894014074506e-05</v>
+        <v>-1.9357058549617863e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>2.1880867197899713e-05</v>
+        <v>2.1904377605232204e-05</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>6.4104738985493182e-05</v>
+        <v>6.410384401778213e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.31116617169740546</v>
+        <v>0.31118261922696167</v>
       </c>
       <c r="C6" s="0">
-        <v>0.0092707035923785559</v>
+        <v>0.0092530318488427167</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>4.4375107134339101e-05</v>
+        <v>4.4377606651052308e-05</v>
       </c>
       <c r="F6" s="0">
-        <v>-4.866318169399838e-05</v>
+        <v>-4.8637932529278693e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-4.5911874284606308e-05</v>
+        <v>-4.6124393918307445e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0019097776548788342</v>
+        <v>-0.0019163511153634425</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.00052241828018428915</v>
+        <v>-0.00052241994601831543</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.31021320589262719</v>
+        <v>0.3102202597773101</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0016858938352797375</v>
+        <v>-0.0016868291915245032</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.00013551992906515111</v>
+        <v>-0.0001354149669841655</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.00076167139997302476</v>
+        <v>-0.00076127269475950233</v>
       </c>
       <c r="G7" s="0">
-        <v>0.00047327249167255033</v>
+        <v>0.00047411583499288538</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>9.8666720133360503e-05</v>
+        <v>9.8499979651256025e-05</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.00036001296037546648</v>
+        <v>-0.00036001262389706579</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>0.26354181335914278</v>
+        <v>0.26376072914554904</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.0058676817011723056</v>
+        <v>-0.0058426341652446949</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>-2.3390461450793021e-05</v>
+        <v>-2.3398689794427373e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00021550563505154876</v>
+        <v>-0.00021556013697747732</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-2.9929042237839412e-06</v>
+        <v>-3.0291350346656042e-06</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.00030916340582556076</v>
+        <v>-0.00030610741187796979</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>7.7559575153818283e-05</v>
+        <v>7.7560209549631942e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>0.25886149237082201</v>
+        <v>0.25907624172475696</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.00038789680348200775</v>
+        <v>-0.0003850668815859286</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.00094846539220762879</v>
+        <v>-0.00094868790055026525</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0055828481761980185</v>
+        <v>-0.0055831544618819649</v>
       </c>
       <c r="G9" s="0">
-        <v>0.00014664943291330535</v>
+        <v>0.00014535299540983682</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00016633257317153426</v>
+        <v>-0.00016631791810836535</v>
       </c>
       <c r="I9" s="0">
-        <v>6.9352229590556806e-06</v>
+        <v>6.9835673913055116e-06</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>-2.7382252088259396e-05</v>
+        <v>-2.7382346741822161e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.33017727894978333</v>
+        <v>0.33108799587467591</v>
       </c>
       <c r="C10" s="0">
-        <v>0.022873029585053658</v>
+        <v>0.023021228354712056</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>1.6301045397334186e-06</v>
+        <v>1.6307435173238953e-06</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.00011879899891978362</v>
+        <v>-0.00011856050071806529</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-1.0717384080471207e-06</v>
+        <v>-1.0708753647006392e-06</v>
       </c>
       <c r="I10" s="0">
-        <v>0.00015543265430409007</v>
+        <v>0.00015448362199206285</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0022276528486593517</v>
+        <v>-0.0022350793113901069</v>
       </c>
       <c r="K10" s="0">
-        <v>0.00066427606724761556</v>
+        <v>0.00066428274692098555</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.33294266888084756</v>
+        <v>0.33381502782142908</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.0027411212087847941</v>
+        <v>0.0027480896909646822</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.00038295767260727528</v>
+        <v>-0.00037880081633392878</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.0021923669864345983</v>
+        <v>-0.0021783873316173902</v>
       </c>
       <c r="G11" s="0">
-        <v>0.00033246977115749393</v>
+        <v>0.00033325210246085607</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.00010506731877668689</v>
+        <v>-0.00010442029236477342</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.00057416901934697478</v>
+        <v>-0.0005748951713518656</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>0.0023193509361305598</v>
+        <v>0.0023193515885943095</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.24882976274471685</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.023450845315571754</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>-5.5798695602324151e-06</v>
+      </c>
+      <c r="F12" s="0">
+        <v>3.9764295790158111e-06</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>-6.6376738566282621e-07</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.0015907672488686101</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>-0.0031215678846267525</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr3_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr3_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,12 +388,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
-    <col min="3" max="3" width="16.24609375" customWidth="true"/>
+    <col min="3" max="3" width="15.24609375" customWidth="true"/>
     <col min="4" max="4" width="16.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
@@ -265,45 +406,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29322669992438499</v>
+        <v>0.2931824580422942</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29402287072866262</v>
+        <v>0.293987266590925</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.00026862316807287816</v>
+        <v>0.0002684553551849295</v>
       </c>
       <c r="E3" s="0">
-        <v>5.6339040856402473e-05</v>
+        <v>5.6025029287211416e-05</v>
       </c>
       <c r="F3" s="0">
-        <v>-6.74865681431272e-05</v>
+        <v>-6.7583354449227937e-05</v>
       </c>
       <c r="G3" s="0">
-        <v>5.7757059480325182e-05</v>
+        <v>5.868132361783792e-05</v>
       </c>
       <c r="H3" s="0">
-        <v>-1.089583323160345e-05</v>
+        <v>-1.0921527921384934e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>0.00015038224792077935</v>
+        <v>0.00015325098133252713</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>2.5416568982750132e-05</v>
+        <v>2.54164970217019e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.29295916031138003</v>
+        <v>0.2930944805672101</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.00045121980247157074</v>
+        <v>-0.00044834805601588079</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-5.8899298331100324e-06</v>
+        <v>-5.8885774921510183e-06</v>
       </c>
       <c r="F4" s="0">
-        <v>1.9328990483364064e-07</v>
+        <v>1.8955205021587939e-07</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-2.9414099441649308e-05</v>
+        <v>-2.9293730141900386e-05</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.00065723111308691145</v>
+        <v>-0.0006526433907999529</v>
       </c>
       <c r="J4" s="0">
-        <v>-5.8765382739523699e-05</v>
+        <v>-6.0987833680323158e-05</v>
       </c>
       <c r="K4" s="0">
-        <v>-2.0153464231731366e-05</v>
+        <v>-2.0161272474283898e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.29489250931795141</v>
+        <v>0.2947706913015366</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0017607400960979902</v>
+        <v>0.0016880784367692234</v>
       </c>
       <c r="D5" s="0">
-        <v>-2.1389137635239426e-05</v>
+        <v>-1.7682031729481799e-05</v>
       </c>
       <c r="E5" s="0">
-        <v>-8.8885207209196416e-05</v>
+        <v>-8.9385267665620258e-05</v>
       </c>
       <c r="F5" s="0">
-        <v>0.00017738100206791978</v>
+        <v>0.00017707480099303152</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.00087335807055857718</v>
+        <v>-0.00087625830860494497</v>
       </c>
       <c r="H5" s="0">
-        <v>-1.9357058549617863e-05</v>
+        <v>-1.9389011917471899e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>2.1904377605232204e-05</v>
+        <v>2.1877416823771409e-05</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>6.410384401778213e-05</v>
+        <v>6.4105288228311075e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.31118261922696167</v>
+        <v>0.3113572177970621</v>
       </c>
       <c r="C6" s="0">
-        <v>0.0092530318488427167</v>
+        <v>0.00934555017633267</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>4.4377606651052308e-05</v>
+        <v>4.4380431545984188e-05</v>
       </c>
       <c r="F6" s="0">
-        <v>-4.8637932529278693e-05</v>
+        <v>-4.8446034705227824e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-4.6124393918307445e-05</v>
+        <v>-4.5756834329712469e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0019163511153634425</v>
+        <v>-0.0019160176997759198</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.00052241994601831543</v>
+        <v>-0.00052242242321337562</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.3102202597773101</v>
+        <v>0.31039790551803675</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0016868291915245032</v>
+        <v>-0.0016754135937021536</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0001354149669841655</v>
+        <v>-0.00013242350374734825</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.00076127269475950233</v>
+        <v>-0.0007423843300923248</v>
       </c>
       <c r="G7" s="0">
-        <v>0.00047411583499288538</v>
+        <v>0.00047555633873255597</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>9.8499979651256025e-05</v>
+        <v>9.8453461105048621e-05</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.00036001262389706579</v>
+        <v>-0.00036001259689172338</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>0.26376072914554904</v>
+        <v>0.26248734675316576</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.0058426341652446949</v>
+        <v>-0.0059604782559876685</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>-2.3398689794427373e-05</v>
+        <v>-2.3413097438083183e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00021556013697747732</v>
+        <v>-0.00021587935921748631</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-3.0291350346656042e-06</v>
+        <v>-3.0484136480561522e-06</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.00030610741187796979</v>
+        <v>-0.00030158158742708884</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>7.7560209549631942e-05</v>
+        <v>7.7567368372222223e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>0.25907624172475696</v>
+        <v>0.25785780186930601</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.0003850668815859286</v>
+        <v>-0.00039392360981811713</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.00094868790055026525</v>
+        <v>-0.0009517109129588636</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0055831544618819649</v>
+        <v>-0.0055944887169418417</v>
       </c>
       <c r="G9" s="0">
-        <v>0.00014535299540983682</v>
+        <v>0.00014690093176517185</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00016631791810836535</v>
+        <v>-0.0001667960556342551</v>
       </c>
       <c r="I9" s="0">
-        <v>6.9835673913055116e-06</v>
+        <v>7.0700682616561238e-06</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>-2.7382346741822161e-05</v>
+        <v>-2.7383572584749327e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.33108799587467591</v>
+        <v>0.33070181163513668</v>
       </c>
       <c r="C10" s="0">
-        <v>0.023021228354712056</v>
+        <v>0.023122172023410482</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>1.6307435173238953e-06</v>
+        <v>1.6331246720271919e-06</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.00011856050071806529</v>
+        <v>-0.00011985515415037511</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-1.0708753647006392e-06</v>
+        <v>-1.0664422911728397e-06</v>
       </c>
       <c r="I10" s="0">
-        <v>0.00015448362199206285</v>
+        <v>0.00015528889145961268</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0022350793113901069</v>
+        <v>-0.0021895702633597781</v>
       </c>
       <c r="K10" s="0">
-        <v>0.00066428274692098555</v>
+        <v>0.00066427461612644789</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.33381502782142908</v>
+        <v>0.33341556739467282</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.0027480896909646822</v>
+        <v>0.0026981069322722317</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.00037880081633392878</v>
+        <v>-0.00039834325486305335</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.0021783873316173902</v>
+        <v>-0.0022399231941148665</v>
       </c>
       <c r="G11" s="0">
-        <v>0.00033325210246085607</v>
+        <v>0.00033722080726809249</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.00010442029236477342</v>
+        <v>-0.00010733672092869461</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.0005748951713518656</v>
+        <v>-0.00057169309392683752</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>0.0023193515885943095</v>
+        <v>0.0023193512553270623</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.24882976274471685</v>
+        <v>0.26144971123686228</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.023450845315571754</v>
+        <v>-0.035627394660230217</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>-5.5798695602324151e-06</v>
+        <v>3.2629078483946922e-06</v>
       </c>
       <c r="F12" s="0">
-        <v>3.9764295790158111e-06</v>
+        <v>0.00073624666844861208</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>-6.6376738566282621e-07</v>
+        <v>0.00012673337435188179</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.0015907672488686101</v>
+        <v>0.0046108272216178201</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.0031215678846267525</v>
+        <v>-0.003151903665052691</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.17372162082653853</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.057837813954880059</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.0052314456829760268</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0.00072073618110852057</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-0.0011439925829761701</v>
+      </c>
+      <c r="H13" s="0">
+        <v>-0.00022337636727649178</v>
+      </c>
+      <c r="I13" s="0">
+        <v>-1.510850610320527e-05</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>-0.0024694737849250137</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.19810570655760343</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.18420272790906661</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>5.1715127219607206e-05</v>
+      </c>
+      <c r="F14" s="0">
+        <v>-7.9556213987212168e-06</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>-6.2106481099011467e-06</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.02391384756627752</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>3.4479159413958183e-06</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr3_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr3_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.2931824580422942</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.293987266590925</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.2930944805672101</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.2947706913015366</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.3113572177970621</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.31039790551803675</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>0.26248734675316576</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>0.25785780186930601</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.33070181163513668</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.33341556739467282</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.26144971123686228</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>0.17372162082653853</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>0.19810570655760343</v>
+        <v>0.25881764487437159</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.18420272790906661</v>
+        <v>-0.16162495467726509</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>5.1715127219607206e-05</v>
+        <v>4.0907354984968571e-05</v>
       </c>
       <c r="F14" s="0">
-        <v>-7.9556213987212168e-06</v>
+        <v>-0.00057153630485935161</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>-6.2106481099011467e-06</v>
+        <v>-0.0033797203646291976</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.02391384756627752</v>
+        <v>-0.013815553750634332</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>3.4479159413958183e-06</v>
+        <v>-0.0087044745660035394</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>0.10588764726928449</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.13713213011902364</v>
+      </c>
+      <c r="E15" s="0">
+        <v>-0.004236459473327462</v>
+      </c>
+      <c r="F15" s="0">
+        <v>-0.0047590197849512626</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.01065145828354119</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>-0.0013365306135361688</v>
       </c>
     </row>
   </sheetData>
